--- a/production/eb07/s04/eb07-s04.xlsx
+++ b/production/eb07/s04/eb07-s04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\eb-corpus\production\eb07\s04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\knowledge-project\kp-corpus1\production\eb07\s04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="518">
   <si>
     <t>p-pg</t>
   </si>
@@ -1572,6 +1572,12 @@
   </si>
   <si>
     <t>correct 2 notes on one line</t>
+  </si>
+  <si>
+    <t>notes in table are not coded; corrected in tei-e.</t>
+  </si>
+  <si>
+    <t>notes in table not coded; corrected in tei-e. Two columns of text were scanned as one; fixed in TEI-E.</t>
   </si>
 </sst>
 </file>
@@ -1930,9 +1936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,7 +1952,7 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4721,6 +4727,9 @@
       <c r="H155" s="1" t="s">
         <v>422</v>
       </c>
+      <c r="L155" s="10" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
@@ -4737,6 +4746,9 @@
       </c>
       <c r="H156" s="1" t="s">
         <v>423</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
